--- a/dados_pesquisa.xlsx
+++ b/dados_pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uelbr-my.sharepoint.com/personal/shimizu_uel_br/Documents/AULA_ESTATÍSTICA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="8_{76E34A74-99A9-4425-8967-2C79BB261C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F3DAAB5-091C-4F83-9142-0E24A13B170E}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{76E34A74-99A9-4425-8967-2C79BB261C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B1D1DE-EB31-47D3-ABCC-124CE207B68A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74CBED61-CD95-40B5-B212-837CFDA26069}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="168">
   <si>
     <t>Idade</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>Consumo de agua</t>
+  </si>
+  <si>
+    <t>Tempo empresa</t>
   </si>
 </sst>
 </file>
@@ -905,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7F4429-7AFF-4686-AA54-ABCE2E7C049D}">
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,9 +926,10 @@
     <col min="8" max="8" width="41.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -956,8 +960,11 @@
       <c r="J1" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -983,7 +990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1067,7 +1074,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
@@ -1096,7 +1103,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
@@ -1148,7 +1155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -1174,7 +1181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -1200,7 +1207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -1342,7 +1349,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
@@ -5430,7 +5437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>115</v>
       </c>
@@ -5456,7 +5463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>115</v>
       </c>
@@ -5482,7 +5489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>115</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>115</v>
       </c>
@@ -5534,7 +5541,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>115</v>
       </c>
@@ -5560,7 +5567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>115</v>
       </c>
@@ -5585,8 +5592,11 @@
       <c r="H166" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>115</v>
       </c>
@@ -5611,8 +5621,11 @@
       <c r="H167" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>115</v>
       </c>
@@ -5637,8 +5650,11 @@
       <c r="H168" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>115</v>
       </c>
@@ -5663,8 +5679,11 @@
       <c r="H169" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>115</v>
       </c>
@@ -5689,8 +5708,11 @@
       <c r="H170" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>115</v>
       </c>
@@ -5715,8 +5737,11 @@
       <c r="H171" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>115</v>
       </c>
@@ -5741,8 +5766,11 @@
       <c r="H172" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>115</v>
       </c>
@@ -5767,8 +5795,11 @@
       <c r="H173" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>115</v>
       </c>
@@ -5793,8 +5824,11 @@
       <c r="H174" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>115</v>
       </c>
@@ -5819,8 +5853,11 @@
       <c r="H175" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K175" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>115</v>
       </c>
@@ -5845,8 +5882,11 @@
       <c r="H176" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K176" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>115</v>
       </c>
@@ -5871,8 +5911,11 @@
       <c r="H177" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K177" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>115</v>
       </c>
@@ -5897,8 +5940,11 @@
       <c r="H178" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K178" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>115</v>
       </c>
@@ -5923,8 +5969,11 @@
       <c r="H179" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K179" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>115</v>
       </c>
@@ -5949,8 +5998,11 @@
       <c r="H180" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>115</v>
       </c>
@@ -5975,8 +6027,11 @@
       <c r="H181" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K181" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>115</v>
       </c>
@@ -6001,8 +6056,11 @@
       <c r="H182" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K182" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>115</v>
       </c>
@@ -6027,8 +6085,11 @@
       <c r="H183" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K183" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>115</v>
       </c>
@@ -6053,8 +6114,11 @@
       <c r="H184" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K184" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>115</v>
       </c>
@@ -6079,8 +6143,11 @@
       <c r="H185" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K185" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>115</v>
       </c>
@@ -6104,6 +6171,9 @@
       </c>
       <c r="H186" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K186" s="1">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
